--- a/public/plantillas_satisfaccion/egresados-grado-satisfaccion-master.xlsx
+++ b/public/plantillas_satisfaccion/egresados-grado-satisfaccion-master.xlsx
@@ -60,22 +60,22 @@
     <t>ExAlumnos</t>
   </si>
   <si>
-    <t>1. Informacion académica(3) Igual al pas</t>
-  </si>
-  <si>
-    <t>2. Información administrativa(4) Igual al pas</t>
-  </si>
-  <si>
-    <t>3. Programas de movilidad (si has participado)(5) igual pas</t>
-  </si>
-  <si>
     <t>5. Valoración de adquisición de competencias(11)igual al pas</t>
   </si>
   <si>
-    <t>4. Valoración de distintos aspectos académicos(6) igual al pas</t>
-  </si>
-  <si>
-    <t>6. Valoración de infraestructuras y recursos(12) igual al pas</t>
+    <t>1. Informacion académica</t>
+  </si>
+  <si>
+    <t>2. Información administrativa</t>
+  </si>
+  <si>
+    <t>3. Programas de movilidad (si has participado)</t>
+  </si>
+  <si>
+    <t>4. Valoración de distintos aspectos académicos</t>
+  </si>
+  <si>
+    <t>6. Valoración de infraestructuras y recursos</t>
   </si>
 </sst>
 </file>
@@ -691,6 +691,36 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,40 +767,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,34 +1119,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1167,17 +1167,17 @@
       <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="37"/>
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="47"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1191,17 +1191,17 @@
         <f t="shared" ref="L4:L6" si="0">SUM(C4:K4)/COUNTA(C4:K4)/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="53"/>
+      <c r="A5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="55"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1226,10 +1226,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="20" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="53"/>
+      <c r="A6" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="55"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1254,20 +1254,20 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="42" t="e">
+      <c r="B7" s="49"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="52" t="e">
         <f>SUM(C7:K7,C8:G8)/COUNTA(C7:K7,C8:G8)/5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1278,27 +1278,27 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="43"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="53"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="45"/>
+      <c r="A9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1312,23 +1312,23 @@
         <f t="shared" ref="L9:L11" si="1">SUM(C9:K9)/COUNTA(C9:K9)/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="7">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="P9" s="48" t="e">
+      <c r="P9" s="35" t="e">
         <f>100*((O6))/P6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1342,18 +1342,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="7">
         <f>P6</f>
         <v>0</v>
       </c>
-      <c r="P10" s="49"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1387,11 +1387,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P9:P10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="N3:P3"/>
@@ -1408,6 +1403,11 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="J7:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:P5 N6 P6">
